--- a/DOWNLOADS/EDITAIS/U_925814_E_900582025_25-09-2025_13h30m/U_925814_E_900582025_25-09-2025_13h30m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_925814_E_900582025_25-09-2025_13h30m/U_925814_E_900582025_25-09-2025_13h30m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="85">
   <si>
     <t>Nº</t>
   </si>
@@ -184,217 +184,79 @@
     <t>Televisor Televisor Tamanho Tela: 98POL, Voltagem: BivoltV, Características Adicionais: Smart Tv, 4 K, Wifi, Hdmi, Usb, Tipo Tela: Qled, Acessórios: Controle Remoto</t>
   </si>
   <si>
-    <t>Aparelho Televisor com tela LED, de 55”. Características Gerais: Tecnologia 4K; Smart TV; Wi-Fi (deve acompanhar todos os acessórios para o perfeito funcionamento deste recurso); Resolução: 3840 x 2160; Formato Tela: 16:09; Áudio: Potência (RMS): 20W (10W+10W); Conexões Mínimas: Entrada HDMI: 3 (três); Entrada USB: 2 (duas); Entrada LAN (RJ45): 1 (uma); Saída Áudio: 1 (uma); Itens Inclusos: Controle Remoto Convencional; Cabo de Força de acordo com a norma da ABNT NBR 14.136 ou deve ser fornecido adaptador.; Manual em Português; Alimentação: AC 100-240V — 50/60Hz; Furação padrão VESA; Garantia mínima: 12 (doze) meses, contados da data do recebimento definitivo. Acondicionamento: embalagem original de fábrica, com identificação e quantidade do material.</t>
-  </si>
-  <si>
-    <t>Fogão industrial 02 bocas Características mínimas: baixa pressão, queimadores duplos, medidas aproximadas: 480 x 800 x 750 mm, acompanhando registro regulador do gás com mangueira e abraçadeiras. Garantia mínima: 12 (doze) meses.</t>
-  </si>
-  <si>
-    <t>Forno Microondas * Capacidade total mínima de 30 litros; Cor branca; Painel de controle eletrônico de fácil manuseio; Funções de descongelamento e cozimento pré-programado, prato giratório, relógio, trava de segurança, tecla início rápido; Função+ 30 segundos; Voltagem: 220 volts; Classificação energética: “A”; Garantia mínima: 12 (doze) meses.</t>
-  </si>
-  <si>
-    <t>Refrigerador * Tipo de porta: duplex; * Capacidade de no mínimo 400 litros; Cor:branca; Tipo de degelo: Frost Free; Compartimentos, pés niveladores e rodízios traseiros; Eficiência energética tipo “A”; Voltagem: 220 V. Garantia mínima: 12 (doze) meses.</t>
-  </si>
-  <si>
-    <t>Frigobar * Capacidade mínima de 120 litros; Cor:branca; Com uma porta, compartilhamentos, pés niveladores e rodízios traseiros; Selo Procel de eficiência energética tipo “A”; Voltagem: 220 V. Garantia mínima: 12 (doze) meses.</t>
-  </si>
-  <si>
-    <t>Suporte de TV * Suporte para fixação de aparelho televisor de até 55 polegadas; Tipo de Suporte: fixo para visão frontal; Tipo de Material: preferencialmente aço carbono; Cor: preferencialmente na cor preta ou de cores escuras; Tipo de Pintura: preferencialmente eletrostática a pó; Furação Compatível: universal. Dados Técnicos: Carga suportada de até: 40 kg; Pontos de fixação por peça: 2 (dois); Conteúdo da Embalagem: suporte para aparelho televisor; manual de instalação; kit de parafusos e buchas suficientes para instalação do suporte, modelos: M4, M5, M6 e M8 Garantia mínima: 12 (doze) meses.</t>
-  </si>
-  <si>
-    <t>Liquidificador Potência: de 800W à 1000W; Ajuste de velocidade: 12; Quantidade de lâminas: no mínimo 4; Capacidade da jarra/copo: 2,4L à 3,0L; Funções: liquidificar, fatiar e triturar; Botão pulsar; Base: antiderrapante; Voltagem:220V; Cor:Preto/Inox. Garantia mínima: 12 (doze) meses.</t>
-  </si>
-  <si>
-    <t>Forno elétrico * Capacidade aproximada de 42 Litros; Cor branca; Lâmpada interna; Bandeja para resíduos; Prateleira removível em 3 posições; Voltagem: 220 V Potência: 1600 W a 1750 W Classificação energética: “A” Garantia mínima: 12 (doze) meses. Referência: Fischer ou equivalente.</t>
-  </si>
-  <si>
-    <t>Bebedouro tipo garrafão * Bebedouro elétrico do tipo torre (de coluna) com capacidade para garrafão de 20L; Tensão de alimentação 220V; Acompanhado de 02 (duas) torneiras (água natural e gelada); Gabinete em Aço Inoxidável Branco Garantia mínima: 12 (doze) meses. Referência: Venâncio ou similar</t>
-  </si>
-  <si>
-    <t>Armário copa/cozinha * Armário em aço; Pintura eletrostática e pó brilhante; Cor:Branca; 03 portas e 03 compartimentos e prateleiras não removíveis; Dimensões mínimas: 90 x 30x 50 cm. Garantia mínima: 12 (doze) meses.</t>
-  </si>
-  <si>
-    <t>Carrinho para chá * Carro bandeja produzido em polipropileno e alumínio anodizado com 04 rodas giratórias; Medidas aproximadas do carro montado: 107 cm de comprimento, 54 cm de largura e 97 cm de altura; Cargas de peso por bandeja de no mínimo 40 kg; Atender todas as normas do INMETRO. Garantia mínima: 12 (doze) meses.</t>
-  </si>
-  <si>
-    <t>Carrinho para transporte de carga * Capacidade da carga: 200 kg; Roda pneumática 325/8 com rolamento rolete 1”; Medidas aproximadas: 1200 x 350 x 260mm; Confeccionado em tudo de 30mm; Travessa de barra chata de 1.1/4 x 1/8; Base de barra chata de 1.1/4 x '4 e punho para as mãos. Garantia mínima: 12 (doze) meses.</t>
-  </si>
-  <si>
-    <t>Quadro Magnético moldura em alumínio Tela em laminado melamínico branco. Chapa metálica e chapa dura de alta densidade com moldura em alumínio. Com suporte para apagador também em alumínio Medida: 120x90cm Garantia mínima de 12 meses.</t>
-  </si>
-  <si>
-    <t>Ventilador de coluna Características mínimas: Ventilador de coluna com sistema de fácil desmontagem, permitindo lavagem completa das grades. Potência de no mínimo 200 w Rotação: de até 1.300 RPM Hélices com 22” — 3 pás Grade: 600 mm/removível Controle de velocidade: rotativo Altura do Aparelho: Min: 1,40/ Máx: 1,80 cm. Voltagem: 220 V Garantia mínima de 12 meses.</t>
-  </si>
-  <si>
-    <t>Purificador de Água Sistema de refrigeração por compressor; Armazenamento mínimo de água gelada: 2 litros Temperatura da água gelada de 4º a 8º; Água gelada e natural; Dupla filtração Troca de refil anual ou 4.000 litros; Classe de eficiência energética Selo Procel “A”; Voltagem: 220 V; Certificação da Portaria 191 do INMETRO. Medidas aproximadas: altura: 40 cm, largura: 30 cm, profundidade: 45 cm, Capacidade aproximada do reservatório: 4.4 litros por hora, cor branca Garantia mínima: 12 (doze) meses. - Itens inclusos: Suporte para instalação em parede</t>
-  </si>
-  <si>
-    <t>Climatizador de Ar - Tipo: Evaporativo - Capacidade: 100 litros podendo ser conectado direto à rede hidráulica para abastecimento automático de água; - Potência: 210 w; - Área de vazão: 30-60m?; - Tensão: 220V * Recursos: Quatro rodas que facilitam a locomoção de um ambiente para outro; Sistema evaporativo: tipo colmeia; Controle de velocidade: 3 velocidades de ventilação; Sistema corta fluxo: Desativa a bomba de água em caso de falta de água; Uso de gelo: Gelo comum pode ser adicionado ao reservatório de água para gerar mais frescor; Diminuir no mínimo de 6 graus de temperatura ambiente; Oscilação de no mínimo de 2 metros de fio; Manual de instruções; Peso entre 23 a 25kg; Vazão cúbica de no mínimo de 5.500m?/de 30 a 60m?; Cores: Branca, Bege ou Cinza. - Garantia: mínimo de 01 ano.</t>
-  </si>
-  <si>
-    <t>Quadro de Aviso em Feltro verde moldura em Alumínio Medida: 120x90cm Quadro em Duratex 3mm, revestido na parte frontal com card board (espessura 6mm) e feltro acrílico (espessura de 2mm), tipo de papelão reforçado que fica entre o duratex e o feltro. Acabamento com moldura de alumínio natural. Itens inclusos: Kit para instalação (parafusos e buchas para fixação em parede) Garantia: mínimo de 12 meses.</t>
-  </si>
-  <si>
-    <t>Lousa Magnética de vidro branca Aquisição, com instalação. Material: Vidro temperado incolor, com espessura mínima de 6 mm; Aplicação de película de segurança na parte posterior para proteção contra estilhaçamento em caso de quebra. Acabamento: Superfície lisa e polida; Cor branca translúcida ou levemente opaca (com fundo branco ou pintura aplicada para contraste com a escrita); Bordas com acabamento liso e seguro. Propriedades funcionais: Superfície magnética ativa, permitindo a fixação de documentos e recados com ímãs (folhas A4, panfletos etc.); Compatível com canetas do tipo quadro branco; Superfície resistente a manchas e riscos; Escrita leve e apagamento fácil com pano seco ou úmido. Dimensões: Largura: 2,00 metros - Altura: 1,00 metro - Tolerância de variação: + 5 cm. Manual de instalação e orientações de manutenção devem acompanhar o produto Instalação: Fixação do tipo permanente, com buchas e parafusos adequados ao tipo de parede; Local de instalação a ser indicado pela Administração; Certificação e garantia: Produto com certificação INMETRO ou equivalente quanto à segurança e resistência do vidro; Garantia mínima de 12 (doze) meses contra manchas e oxidação da superfície. 1. Acessórios mínimos inclusos: 1 (um) apagador compatível com superfície de vidro; 1 (uma) caneta para quadro branco recarregável; Kit básico de instalação (buchas, parafusos, suportes de fixação).</t>
-  </si>
-  <si>
-    <t>SUPORTE FIXO UNIVERSAL DE PAREDE PARA TELEVISORES LED DE ATÉ 100” Características Gerais: Construído com aço de alta resistência, com sistema de encaixe rápido e trava de segurança. Acabamento em pintura eletrostática. Tipo de montagem: montagem na parede. Tipo de movimento: fixado. Tipo de material: aço carbono. Carga máxima: até 100 kg Tamanho máximo compatível: até 100 polegadas. Cor: preto. Padrão VESA. Itens inclusos: Gabarito (manual de instruções) e kit de acessórios (parafusos e buchas). GARANTIA MÍNIMA: 12 (doze) meses contra defeitos de fabricação ou em suas peças, contados da data do recebimento definitivo. ACONDICIONAMENTO: embalagem original de fábrica, com identificação e quantidade do material.</t>
-  </si>
-  <si>
-    <t>Armário de aço Dimensões: Altura: 2,00 m; Profundidade: 0,42 m; Largura: 0,92 m. Cor: a ser definida no pedido do lote. Armário deverá ser constituído nas laterais e fundo em chapas de aço com espessura minima de % 22 (0,75 mm) e internamente nos quatro canto deverá ter um reforço em chapa de aço *% 14 (1,90 mm)em L (30 x 30 mm), possuir duas portas pivotantes confeccionada em chapa de aço com espessura minima de %22 (0,75 mm) e quatro prateleiras em aço com espessura minima de %20 (0,90 mm) formando cinco vãos com alturas ajustáveis. Os componentes ou partes do armário com os quais o usuário entra em contato durante o uso normal não possuir rebarbas ou cantos vivos. As partes soldadas devem estar isentas de respingos e imperfeições. Os armários devem possuir resistência mecânica e estabilidade para tender suas funções. As prateleiras e as portas devem possuir dobramento duplo em todo o seu perímetro. As peças constituintes do corpo devem ser soldadas. Na Zona Central da parte interna de cada porta deve haver um reforço soldado. Cada porta deve ser dotada de três dobradiças com no mínimo 70 mm de altura. As maçanetas devem ser metálicas, de liga não ferrosas com acabamento cromado/niquelado. O sistema de travamento deve ser o de Cremona. As portas devem ser dotadas de fechaduras com tambor cilíndrico de no mínimo quatro pinos e as chaves devem ser em duplicata. O armário não deve apresentar fratura, deformação, afrouxamentos ou soltura de qualquer um de seus componentes ou juntas. Igualmente devem se manter estável, mesmo em condições de uso, eventualmente, anormais. Os Armários devem ser embalados em plástico liso e acondicionado em caixa de papelão apropriado. As chaves devem vir presas á fechadura. As prateleiras devem ser envolvidas individualmente em papelão ondulado ou firme de plástico liso ou com bolhas e ficadas com fita adesivas e devem vir calçadas dentro dos armários. Deverá ser entregue devidamente montada. Capacidade: de carga distribuída de no mínimo 300 kg. Rodapé: Base em quadro de aço com tratamento anticorrosivo e/ou antiferruginoso, pintura epóxi, com sapatas niveladoras para ajuste de nível e correção de eventuais irregularidades do piso. Garantia mínima: 12 (doze) meses após assinatura do Termo de Recebimento Definitivo. Móveis entregues montados. Obs.: O material constante deste item deverá, obrigatoriamente, atender os requisitos da ABNT NBR 13961 - Moveis para escritório - Classificação e características físicas e dimensionais dos armários, bem como estabelece os métodos para a determinação da estabilidade, resistência e durabilidade. A empresa deverá apresentar obrigatoriamente um certificado de conformidade com a Norma ABNT NBR 13961 Emitido por organismo certificador de produto acreditado pelo INMETRO.</t>
-  </si>
-  <si>
-    <t>Armário de aço - cota de 24% do item 20. Dimensões: Altura: 2,00 m; Profundidade: 0,42 m; Largura: 0,92 m. Cor: a ser definida no pedido do lote. Armário deverá ser constituído nas laterais e fundo em chapas de aço com espessura minima de *% 22 (0,75 mm) e internamente nos quatro canto deverá ter um reforço em chapa de aço *% 14 (1,90 mm)em L (30 x 30 mm), possuir duas portas pivotantes confeccionada em chapa de aço com espessura minima de %422 (0,75 mm) e quatro prateleiras em aço com espessura minima de %20 (0,90 mm) formando cinco vãos com alturas ajustáveis. Os componentes ou partes do armário com os quais o usuário entra em contato durante o uso normal não possuir rebarbas ou cantos vivos. As partes soldadas devem estar isentas de respingos e imperfeições. Os armários devem possuir resistência mecânica e estabilidade para tender suas funções. As prateleiras e as portas devem possuir dobramento duplo em todo o seu perímetro. As peças constituintes do corpo devem ser soldadas. Na Zona Central da parte interna de cada porta deve haver um reforço soldado. Cada porta deve ser dotada de três dobradiças com no mínimo 70 mm de altura. As maçanetas devem ser metálicas, de liga não ferrosas com acabamento cromado/niquelado. O sistema de travamento deve ser o de Cremona. As portas devem ser dotadas de fechaduras com tambor cilíndrico de no mínimo quatro pinos e as chaves devem ser em duplicata. O armário não deve apresentar fratura, deformação, afrouxamentos ou soltura de qualquer um de seus componentes ou juntas. Igualmente devem se manter estável, mesmo em condições de uso, eventualmente, anormais. Os Armários devem ser embalados em plástico liso e acondicionado em caixa de papelão apropriado. As chaves devem vir presas á fechadura. As prateleiras devem ser envolvidas individualmente em papelão ondulado ou firme de plástico liso ou com bolhas e ficadas com fita adesivas e devem vir calçadas dentro dos armários. Deverá ser entregue devidamente montada. Capacidade: de carga distribuída de no mínimo 300 kg. Rodapé: Base em quadro de aço com tratamento anticorrosivo e/ou antiferruginoso, pintura epóxi, com sapatas niveladoras para ajuste de nível e correção de eventuais irregularidades do piso. Garantia mínima: 12 (doze) meses após assinatura do Termo de Recebimento Definitivo. Móveis entregues montados. Obs.: O material constante deste item deverá, obrigatoriamente, atender os requisitos da ABNT NBR 13961 - Moveis para escritório - Classificação e características físicas e dimensionais dos armários, bem como estabelece os métodos para a determinação da estabilidade, resistência e durabilidade. A empresa deverá apresentar obrigatoriamente um certificado de conformidade com a Norma ABNT NBR 13961 Emitido por organismo certificador de produto acreditado pelo INMETRO.</t>
-  </si>
-  <si>
-    <t>Ventilador pedestal com climatizador e umidificador Sistema giratório e fixo; Com dimensões mínimas de 220x60x43cm; Controle gradual de névoa e controle de fluxo de ar; Com reservatório de água de no mínimo 20 litros; Voltagem: 220 V; Garantia mínima: 12 (doze) meses.</t>
-  </si>
-  <si>
-    <t>Ventilador pedestal com climatizador e umidificador - cota de aprox. 23,33% do item 22. Sistema giratório e fixo; Com dimensões mínimas de 220x60x43cm; Controle gradual de névoa e controle de fluxo de ar; Com reservatório de água de no mínimo 20 litros; Voltagem: 220 V; Garantia mínima: 12 (doze) meses.</t>
-  </si>
-  <si>
-    <t>APARELHO TELEVISOR DE 98” Características Gerais mínimas: Conversor para TV digital integrado; Tecnologia: Q LED 4k; Resolução: 3840 x 2160; Tamanho da tela: 98'; Frequência: 120 Hz; Bivolt; Formato da tela: 16:9. Áudio: Dolby Atmos; Potência (RMS): 40W. Conexões Mínimas: Entrada HDMI: 4 (quatro); Entrada USB: 2 (duas); 0l Saída de Áudio Digital (Óptica), Ethernet (LAN), Anynet+ (HDMI-CEC); Wi-Fi (deve acompanhar todos os acessórios para o perfeito funcionamento deste recurso); Bluetooth. Outros Recursos: Reconhecimento de voz; Processador com Inteligência Artifícial; Comando de voz; Telasemlimites; Visuallivre de cabos; Alexabuiltin. Itens inclusos: Controleremoto convencional; Cabode Força de acordo com a norma da ABNT NBR 14.136 ou deve ser fornecido adaptador; Manual em Português. Recursos de Áudio: Alto-falantes integrados com potência adequada para o ambiente. Eficiência Energética: Compatível com os padrões de eficiência energética vigentes. GARANTIA MÍNIMA: 12 (doze) meses, contados da data do recebimento definitivo. ACONDICIONAMENTO: embalagem original de fábrica, com identificação e quantidade do material.</t>
-  </si>
-  <si>
-    <t>APARELHO TELEVISOR DE 98" - COTA DE APROX. 14,28% DO ITEM 24. Características Gerais mínimas: Conversor para TV digital integrado; Tecnologia: Q LED 4k; Resolução: 3840 x 2160; Tamanho da tela: 98'; Frequência: 120 Hz; Bivolt; Formato da tela: 16:9. Áudio: Dolby Atmos; Potência (RMS): 40W. Conexões Mínimas: Entrada HDMI: 4 (quatro); Entrada USB: 2 (duas); 0l Saída de Áudio Digital (Óptica), Ethernet (LAN), Anynet+ (HDMI-CEC); Wi-Fi (deve acompanhar todos os acessórios para o perfeito funcionamento deste recurso); Bluetooth. Outros Recursos: Reconhecimento de voz; Processador com Inteligência Artificial; Comando de voz; Telasem limites; Visuallivre de cabos; Alexabuiltin. Itens inclusos: Controleremoto convencional; Cabo de Força de acordo com a norma da ABNT NBR 14.136 ou deve ser fornecido adaptador; Manual em Português. Recursos de Áudio: Alto-falantes integrados com potência adequada para o ambiente. Eficiência Energética: Compatível com os padrões de eficiência energética vigentes. GARANTIA MÍNIMA: 12 (doze) meses, contados da data do recebimento definitivo. ACONDICIONAMENTO: embalagem original de fábrica, com identificação e quantidade do material.</t>
-  </si>
-  <si>
-    <t>2307,70</t>
-  </si>
-  <si>
-    <t>613,00</t>
-  </si>
-  <si>
-    <t>639,03</t>
-  </si>
-  <si>
-    <t>3449,20</t>
-  </si>
-  <si>
-    <t>1325,00</t>
-  </si>
-  <si>
-    <t>38,39</t>
-  </si>
-  <si>
-    <t>264,66</t>
-  </si>
-  <si>
-    <t>618,44</t>
-  </si>
-  <si>
-    <t>904,35</t>
-  </si>
-  <si>
-    <t>358,75</t>
-  </si>
-  <si>
-    <t>1393,98</t>
-  </si>
-  <si>
-    <t>447,09</t>
-  </si>
-  <si>
-    <t>310,63</t>
-  </si>
-  <si>
-    <t>321,83</t>
-  </si>
-  <si>
-    <t>973,09</t>
-  </si>
-  <si>
-    <t>1541,36</t>
-  </si>
-  <si>
-    <t>220,33</t>
-  </si>
-  <si>
-    <t>1605,82</t>
-  </si>
-  <si>
-    <t>58,68</t>
-  </si>
-  <si>
-    <t>1631,96</t>
-  </si>
-  <si>
-    <t>4483,31</t>
-  </si>
-  <si>
-    <t>19910,27</t>
-  </si>
-  <si>
-    <t>69231,00</t>
-  </si>
-  <si>
-    <t>19616,00</t>
-  </si>
-  <si>
-    <t>31951,50</t>
-  </si>
-  <si>
-    <t>34492,00</t>
-  </si>
-  <si>
-    <t>66250,00</t>
-  </si>
-  <si>
-    <t>1535,60</t>
-  </si>
-  <si>
-    <t>7939,80</t>
-  </si>
-  <si>
-    <t>12368,80</t>
-  </si>
-  <si>
-    <t>45217,50</t>
-  </si>
-  <si>
-    <t>10762,50</t>
-  </si>
-  <si>
-    <t>27879,60</t>
-  </si>
-  <si>
-    <t>13412,70</t>
-  </si>
-  <si>
-    <t>15531,50</t>
-  </si>
-  <si>
-    <t>9654,90</t>
-  </si>
-  <si>
-    <t>48654,50</t>
-  </si>
-  <si>
-    <t>29285,84</t>
-  </si>
-  <si>
-    <t>6609,90</t>
-  </si>
-  <si>
-    <t>16058,20</t>
-  </si>
-  <si>
-    <t>410,76</t>
-  </si>
-  <si>
-    <t>62014,48</t>
-  </si>
-  <si>
-    <t>19583,52</t>
-  </si>
-  <si>
-    <t>103116,13</t>
-  </si>
-  <si>
-    <t>31383,17</t>
-  </si>
-  <si>
-    <t>119461,62</t>
+    <t>Aparelho Televisor com tela LED, de 55”</t>
+  </si>
+  <si>
+    <t>Fogão industrial 02 bocas</t>
+  </si>
+  <si>
+    <t>Forno Microondas</t>
+  </si>
+  <si>
+    <t>Refrigerador</t>
+  </si>
+  <si>
+    <t>Frigobar</t>
+  </si>
+  <si>
+    <t>Suporte de TV</t>
+  </si>
+  <si>
+    <t>Liquidificador</t>
+  </si>
+  <si>
+    <t>Forno elétrico</t>
+  </si>
+  <si>
+    <t>Bebedouro tipo garrafão</t>
+  </si>
+  <si>
+    <t>Armário copa/cozinha</t>
+  </si>
+  <si>
+    <t>Carrinho para chá</t>
+  </si>
+  <si>
+    <t>Carrinho para transporte de carga</t>
+  </si>
+  <si>
+    <t>Quadro Magnético com moldura em alumínio</t>
+  </si>
+  <si>
+    <t>Ventilador de coluna</t>
+  </si>
+  <si>
+    <t>Purificador de Água</t>
+  </si>
+  <si>
+    <t>Climatizador de Ar</t>
+  </si>
+  <si>
+    <t>Quadro de Aviso em Feltro verde moldura em Alumínio</t>
+  </si>
+  <si>
+    <t>Lousa Magnética de vidro branca</t>
+  </si>
+  <si>
+    <t>SUPORTE FIXO UNIVERSAL DE PAREDE PARA TELEVISORES LED DE ATÉ 100"</t>
+  </si>
+  <si>
+    <t>Armário de aço</t>
+  </si>
+  <si>
+    <t>Armário de aço - cota de 24% do item 20.</t>
+  </si>
+  <si>
+    <t>Ventilador pedestal com climatizador e umidificador</t>
+  </si>
+  <si>
+    <t>Ventilador pedestal com climatizador e umidificador - cota de aprox. 23,33% do item 22.</t>
+  </si>
+  <si>
+    <t>APARELHO TELEVISOR DE 98"</t>
+  </si>
+  <si>
+    <t>APARELHO TELEVISOR DE 98" - COTA DE APROX. 14,28% DO ITEM 24.</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -812,20 +674,20 @@
       <c r="D2">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" t="s">
-        <v>103</v>
+      <c r="E2">
+        <v>2307.7</v>
+      </c>
+      <c r="F2">
+        <v>69231</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -841,20 +703,20 @@
       <c r="D3">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" t="s">
-        <v>104</v>
+      <c r="E3">
+        <v>613</v>
+      </c>
+      <c r="F3">
+        <v>19616</v>
       </c>
       <c r="G3" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="I3" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -870,20 +732,20 @@
       <c r="D4">
         <v>50</v>
       </c>
-      <c r="E4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" t="s">
-        <v>105</v>
+      <c r="E4">
+        <v>639.03</v>
+      </c>
+      <c r="F4">
+        <v>31951.5</v>
       </c>
       <c r="G4" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -899,20 +761,20 @@
       <c r="D5">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" t="s">
-        <v>106</v>
+      <c r="E5">
+        <v>3449.2</v>
+      </c>
+      <c r="F5">
+        <v>34492</v>
       </c>
       <c r="G5" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -928,20 +790,20 @@
       <c r="D6">
         <v>50</v>
       </c>
-      <c r="E6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" t="s">
-        <v>107</v>
+      <c r="E6">
+        <v>1325</v>
+      </c>
+      <c r="F6">
+        <v>66250</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -957,20 +819,20 @@
       <c r="D7">
         <v>40</v>
       </c>
-      <c r="E7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" t="s">
-        <v>108</v>
+      <c r="E7">
+        <v>38.39</v>
+      </c>
+      <c r="F7">
+        <v>1535.6</v>
       </c>
       <c r="G7" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -986,20 +848,20 @@
       <c r="D8">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" t="s">
-        <v>109</v>
+      <c r="E8">
+        <v>264.66</v>
+      </c>
+      <c r="F8">
+        <v>7939.800000000001</v>
       </c>
       <c r="G8" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1015,20 +877,20 @@
       <c r="D9">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" t="s">
-        <v>110</v>
+      <c r="E9">
+        <v>618.4400000000001</v>
+      </c>
+      <c r="F9">
+        <v>12368.8</v>
       </c>
       <c r="G9" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1044,20 +906,20 @@
       <c r="D10">
         <v>50</v>
       </c>
-      <c r="E10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" t="s">
-        <v>111</v>
+      <c r="E10">
+        <v>904.35</v>
+      </c>
+      <c r="F10">
+        <v>45217.5</v>
       </c>
       <c r="G10" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1073,20 +935,20 @@
       <c r="D11">
         <v>30</v>
       </c>
-      <c r="E11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" t="s">
-        <v>112</v>
+      <c r="E11">
+        <v>358.75</v>
+      </c>
+      <c r="F11">
+        <v>10762.5</v>
       </c>
       <c r="G11" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1102,20 +964,20 @@
       <c r="D12">
         <v>20</v>
       </c>
-      <c r="E12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" t="s">
-        <v>113</v>
+      <c r="E12">
+        <v>1393.98</v>
+      </c>
+      <c r="F12">
+        <v>27879.6</v>
       </c>
       <c r="G12" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1131,20 +993,20 @@
       <c r="D13">
         <v>30</v>
       </c>
-      <c r="E13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" t="s">
-        <v>114</v>
+      <c r="E13">
+        <v>447.09</v>
+      </c>
+      <c r="F13">
+        <v>13412.7</v>
       </c>
       <c r="G13" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1160,20 +1022,20 @@
       <c r="D14">
         <v>50</v>
       </c>
-      <c r="E14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" t="s">
-        <v>115</v>
+      <c r="E14">
+        <v>310.63</v>
+      </c>
+      <c r="F14">
+        <v>15531.5</v>
       </c>
       <c r="G14" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1189,20 +1051,20 @@
       <c r="D15">
         <v>30</v>
       </c>
-      <c r="E15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" t="s">
-        <v>116</v>
+      <c r="E15">
+        <v>321.83</v>
+      </c>
+      <c r="F15">
+        <v>9654.9</v>
       </c>
       <c r="G15" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1218,20 +1080,20 @@
       <c r="D16">
         <v>50</v>
       </c>
-      <c r="E16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" t="s">
-        <v>117</v>
+      <c r="E16">
+        <v>973.09</v>
+      </c>
+      <c r="F16">
+        <v>48654.5</v>
       </c>
       <c r="G16" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1247,20 +1109,20 @@
       <c r="D17">
         <v>19</v>
       </c>
-      <c r="E17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" t="s">
-        <v>118</v>
+      <c r="E17">
+        <v>1541.36</v>
+      </c>
+      <c r="F17">
+        <v>29285.84</v>
       </c>
       <c r="G17" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1276,20 +1138,20 @@
       <c r="D18">
         <v>30</v>
       </c>
-      <c r="E18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" t="s">
-        <v>119</v>
+      <c r="E18">
+        <v>220.33</v>
+      </c>
+      <c r="F18">
+        <v>6609.900000000001</v>
       </c>
       <c r="G18" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1305,20 +1167,20 @@
       <c r="D19">
         <v>10</v>
       </c>
-      <c r="E19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" t="s">
-        <v>120</v>
+      <c r="E19">
+        <v>1605.82</v>
+      </c>
+      <c r="F19">
+        <v>16058.2</v>
       </c>
       <c r="G19" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1334,20 +1196,20 @@
       <c r="D20">
         <v>7</v>
       </c>
-      <c r="E20" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" t="s">
-        <v>121</v>
+      <c r="E20">
+        <v>58.68</v>
+      </c>
+      <c r="F20">
+        <v>410.76</v>
       </c>
       <c r="G20" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1363,20 +1225,20 @@
       <c r="D21">
         <v>38</v>
       </c>
-      <c r="E21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" t="s">
-        <v>122</v>
+      <c r="E21">
+        <v>1631.96</v>
+      </c>
+      <c r="F21">
+        <v>62014.48</v>
       </c>
       <c r="G21" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1392,20 +1254,20 @@
       <c r="D22">
         <v>12</v>
       </c>
-      <c r="E22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" t="s">
-        <v>123</v>
+      <c r="E22">
+        <v>1631.96</v>
+      </c>
+      <c r="F22">
+        <v>19583.52</v>
       </c>
       <c r="G22" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1421,20 +1283,20 @@
       <c r="D23">
         <v>23</v>
       </c>
-      <c r="E23" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" t="s">
-        <v>124</v>
+      <c r="E23">
+        <v>4483.31</v>
+      </c>
+      <c r="F23">
+        <v>103116.13</v>
       </c>
       <c r="G23" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1450,20 +1312,20 @@
       <c r="D24">
         <v>7</v>
       </c>
-      <c r="E24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" t="s">
-        <v>125</v>
+      <c r="E24">
+        <v>4483.31</v>
+      </c>
+      <c r="F24">
+        <v>31383.17</v>
       </c>
       <c r="G24" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1479,20 +1341,20 @@
       <c r="D25">
         <v>6</v>
       </c>
-      <c r="E25" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" t="s">
-        <v>126</v>
+      <c r="E25">
+        <v>19910.27</v>
+      </c>
+      <c r="F25">
+        <v>119461.62</v>
       </c>
       <c r="G25" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1508,20 +1370,20 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" t="s">
-        <v>102</v>
+      <c r="E26">
+        <v>19910.27</v>
+      </c>
+      <c r="F26">
+        <v>19910.27</v>
       </c>
       <c r="G26" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
